--- a/FINISHED/geopackages/dsra_attributes_en.xlsx
+++ b/FINISHED/geopackages/dsra_attributes_en.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\data\FGP - DSRA\For Translation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B1579-46F1-480E-97DB-FB1ECB30CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="shakemap" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="buildings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="sauid" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="csd" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="shakemap" sheetId="2" r:id="rId2"/>
+    <sheet name="buildings" sheetId="3" r:id="rId3"/>
+    <sheet name="sauid" sheetId="4" r:id="rId4"/>
+    <sheet name="csd" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,1162 +29,1243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="410">
   <si>
     <t xml:space="preserve">Summary Data Description </t>
   </si>
   <si>
-    <t xml:space="preserve">This layer includes deterministic earthquake scenarios, including hazard and risk assesments, for Canada. This information is provided at the scale of ‘Settled Areas’, which approximately delineate clusters of buildings across Canada within census dissemination boundaries. Earthquake impacts are reported in terms of shaking intensities, building damage, financial losses, casualties, disruption to housing/business, generation of debris, and recovery. All impacts are the result of shaking damage to buildings and their occupants: this model does not consider secondary perils, damage to vehicles, damage to infrastructure, or secondary losses such as business disruption. This is the Earthquake Scenario Catalogue contribution to the first Canadian Seismic Risk Model (CanSRM1).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detailed Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hazard Site ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique asset location identification used to sample Vs30 values for calculation of site amplification factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree of east-west longitude for SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree of north-south latitude for SiteID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_RupName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earthquake Scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of earthquake rupture scenario used to estimate damages and losses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Mag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moment Magnitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnitude of earthquake rupture scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_GMPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground Motion Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ground motion model set used for calculating propogation of seismic energy from earthquake rupture zone to a point on the earth's surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_PGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peak Ground Acceleration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g (9.81 m/s2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (0.1s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 0.1 seconds (SA0.1) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (0.2s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 0.2 seconds (SA0.2) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (0.3s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 0.3 seconds (SA0.3) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (0.5s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 0.5 seconds (SA0.5) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa0p6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (0.6s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 0.6 seconds (SA0.6) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa1p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (1.0s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 1 seconds (SA1.0) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Sa2p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spectral Acceleration (2.0s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected spectral acceleration at 2 seconds (SA2.0) for the earthquake scenario (sH_RupName)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregation Rule to SAUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AssetID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identification code assigned to the building, using number-occupancy-type-design level attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reresentative earthquake source zone for rupture scenario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoLon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypocentre longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree of east-west longitude for earthquake hypocentre location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoLat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypocentre latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree of north-south latitude for earthquake hypocentre location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_HypoDepth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypocentre depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth below ground surface to earthquake hypocentre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Rake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupture Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction of slip along earthquake rupture surface measured relative to the fault strike (between -180 and 180 decimal degrees). Convention follows Aki &amp; Richards, [1980], where left lateral slip is 0, reverse slip is 90, normal slip is -90, and right lateral is positive or negative 180, respectively.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_Vs30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shear Wave Velocity at 30 meters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average shear-wave velocity, in m/s, in the top 30m of soil/rock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_z1p0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shear Wave Velocity at 1 Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth to a shear-wave velocity of 1 km/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sH_z2p5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shear Wave Velocity at 2.5 Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth to a shear-wave velocity of 2.5 km/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_None (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of undamaged buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_None (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVERAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of no damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Slight (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slight Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain slight damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Slight (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slight Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of slight damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Moderate (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain moderate damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Moderate (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of moderate damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Extensive (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extensive Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain extensive damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Extensive (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extensive Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buldings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of extensive damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Complete (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain complete damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDr_Complete (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of complete damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sD_Collapse (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collapsed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of collapsed buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+    <t>This layer includes deterministic earthquake scenarios, including hazard and risk assesments, for Canada. This information is provided at the scale of ‘Settled Areas’, which approximately delineate clusters of buildings across Canada within census dissemination boundaries. Earthquake impacts are reported in terms of shaking intensities, building damage, financial losses, casualties, disruption to housing/business, generation of debris, and recovery. All impacts are the result of shaking damage to buildings and their occupants: this model does not consider secondary perils, damage to vehicles, damage to infrastructure, or secondary losses such as business disruption. This is the Earthquake Scenario Catalogue contribution to the first Canadian Seismic Risk Model (CanSRM1).</t>
+  </si>
+  <si>
+    <t>Attribute Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Detailed Description</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>Hazard Site ID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Unique asset location identification used to sample Vs30 values for calculation of site amplification factor</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Site Longitude</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Degree of east-west longitude for SiteID</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Site Latitude</t>
+  </si>
+  <si>
+    <t>Degree of north-south latitude for SiteID</t>
+  </si>
+  <si>
+    <t>sH_RupName</t>
+  </si>
+  <si>
+    <t>Earthquake Scenario</t>
+  </si>
+  <si>
+    <t>Name of earthquake rupture scenario used to estimate damages and losses</t>
+  </si>
+  <si>
+    <t>sH_Mag</t>
+  </si>
+  <si>
+    <t>Moment Magnitude</t>
+  </si>
+  <si>
+    <t>Magnitude of earthquake rupture scenario</t>
+  </si>
+  <si>
+    <t>sH_GMPE</t>
+  </si>
+  <si>
+    <t>Ground Motion Model</t>
+  </si>
+  <si>
+    <t>Ground motion model set used for calculating propogation of seismic energy from earthquake rupture zone to a point on the earth's surface</t>
+  </si>
+  <si>
+    <t>sH_PGA</t>
+  </si>
+  <si>
+    <t>Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>g (9.81 m/s2)</t>
+  </si>
+  <si>
+    <t>Expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p1</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (0.1s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 0.1 seconds (SA0.1) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p2</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (0.2s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 0.2 seconds (SA0.2) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p3</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (0.3s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 0.3 seconds (SA0.3) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p5</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (0.5s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 0.5 seconds (SA0.5) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa0p6</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (0.6s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 0.6 seconds (SA0.6) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa1p0</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (1.0s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 1 seconds (SA1.0) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>sH_Sa2p0</t>
+  </si>
+  <si>
+    <t>Spectral Acceleration (2.0s)</t>
+  </si>
+  <si>
+    <t>Expected spectral acceleration at 2 seconds (SA2.0) for the earthquake scenario (sH_RupName)</t>
+  </si>
+  <si>
+    <t>Aggregation Rule to SAUID</t>
+  </si>
+  <si>
+    <t>AssetID</t>
+  </si>
+  <si>
+    <t>Asset ID</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unique identification code assigned to the building, using number-occupancy-type-design level attributes</t>
+  </si>
+  <si>
+    <t>sH_Source</t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>Reresentative earthquake source zone for rupture scenario</t>
+  </si>
+  <si>
+    <t>sH_HypoLon</t>
+  </si>
+  <si>
+    <t>Hypocentre longitude</t>
+  </si>
+  <si>
+    <t>Degree of east-west longitude for earthquake hypocentre location</t>
+  </si>
+  <si>
+    <t>sH_HypoLat</t>
+  </si>
+  <si>
+    <t>Hypocentre latitude</t>
+  </si>
+  <si>
+    <t>Degree of north-south latitude for earthquake hypocentre location</t>
+  </si>
+  <si>
+    <t>sH_HypoDepth</t>
+  </si>
+  <si>
+    <t>Hypocentre depth</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Depth below ground surface to earthquake hypocentre</t>
+  </si>
+  <si>
+    <t>sH_Rake</t>
+  </si>
+  <si>
+    <t>Rupture Direction</t>
+  </si>
+  <si>
+    <t>Direction of slip along earthquake rupture surface measured relative to the fault strike (between -180 and 180 decimal degrees). Convention follows Aki &amp; Richards, [1980], where left lateral slip is 0, reverse slip is 90, normal slip is -90, and right lateral is positive or negative 180, respectively.</t>
+  </si>
+  <si>
+    <t>sH_Vs30</t>
+  </si>
+  <si>
+    <t>Shear Wave Velocity at 30 meters</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Average shear-wave velocity, in m/s, in the top 30m of soil/rock.</t>
+  </si>
+  <si>
+    <t>sH_z1p0</t>
+  </si>
+  <si>
+    <t>Shear Wave Velocity at 1 Km</t>
+  </si>
+  <si>
+    <t>Depth to a shear-wave velocity of 1 km/s</t>
+  </si>
+  <si>
+    <t>sH_z2p5</t>
+  </si>
+  <si>
+    <t>Shear Wave Velocity at 2.5 Km</t>
+  </si>
+  <si>
+    <t>Depth to a shear-wave velocity of 2.5 km/s</t>
+  </si>
+  <si>
+    <t>sD_None (b0/r1)</t>
+  </si>
+  <si>
+    <t>No Damage</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Expected number of undamaged buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDr_None (b0/r1)</t>
+  </si>
+  <si>
+    <t>No Damage Probability</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Probability of no damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sD_Slight (b0/r1)</t>
+  </si>
+  <si>
+    <t>Slight Damage</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain slight damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDr_Slight (b0/r1)</t>
+  </si>
+  <si>
+    <t>Slight Damage Probability</t>
+  </si>
+  <si>
+    <t>Probability of slight damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sD_Moderate (b0/r1)</t>
+  </si>
+  <si>
+    <t>Moderate Damage</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain moderate damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDr_Moderate (b0/r1)</t>
+  </si>
+  <si>
+    <t>Moderate Damage Probability</t>
+  </si>
+  <si>
+    <t>Probability of moderate damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sD_Extensive (b0/r1)</t>
+  </si>
+  <si>
+    <t>Extensive Damage</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain extensive damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDr_Extensive (b0/r1)</t>
+  </si>
+  <si>
+    <t>Extensive Damage Probability</t>
+  </si>
+  <si>
+    <t>buldings</t>
+  </si>
+  <si>
+    <t>Probability of extensive damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sD_Complete (b0/r1)</t>
+  </si>
+  <si>
+    <t>Complete Damage</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain complete damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDr_Complete (b0/r1)</t>
+  </si>
+  <si>
+    <t>Complete Damage Probability</t>
+  </si>
+  <si>
+    <t>Probability of complete damage to buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sD_Collapse (b0/r1)</t>
+  </si>
+  <si>
+    <t>Collapsed</t>
+  </si>
+  <si>
+    <t>Expected number of collapsed buildings for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
   </si>
   <si>
     <t xml:space="preserve"> (b0/r1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Collapse Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of building collapsed for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Interruption (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Downtime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected duration of time that a building is not functional for habitation or business operations for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Repair (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repair Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected duration of time required for cleanup, permitting, construction and repair of building damage sustained for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Recovery (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time required to recover pre-event (baseline) levels of building functionality for the earthquake scenario (sH_RupName), including initial downtime and time for cleanup, construction and repair of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisTotal (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Disaster Debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tons (t)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisBW (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wood and Brick Debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of wood and brick disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_DebrisCS (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concrete and Steel Debris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of concrete and steel disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor Injury (Daytime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Injury (Daytime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serious Injury (Daytime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasDayL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Injury (Daytime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor Injury (Nighttime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Injury (Nighttime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serious Injury (Nighttime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasNightL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Injury (Nighttime)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL1 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minor Injury (In Transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL2 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderate Injury (In Transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serious Injury (In Transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_CasTransitL4 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Injury (In Transit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res3 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Disrupted after 3 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 3 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res30 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Disrupted after 30 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 30 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Disrupted after 90 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Res90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-Day Residential Displacement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of nighttime population expected to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage (sCt_DisplRes90 / Et_PopNight)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res180 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Disrupted after 180 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 180 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Res360 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Disrupted after 360 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 360 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Hshld (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displaced Households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">households</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of households to be displaced for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl30 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees Dispruted after 30 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 30 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees Disrupted after 90 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Empl90 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-Day Employee Disruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of employees expected to be affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sCt_DisrupEmpl90 / Et_PopDay), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl180 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees Disrupted after 180 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 180 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sC_Empl360 (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employees Disrupted after 360 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 360 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Asset (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total capital asset loss to buildings and contents for a specific earthquake rupture scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Bldg (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss from building damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLr_Bldg (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Loss Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average loss ratio for buildings in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Str (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structural Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to structural components of a building for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Nstr (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nonstructural Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to non structural components of a building for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sL_Cont (b0/r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to building contents for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settled Area ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identification code assiged to the Settled Area (SAUID), which represents the approximate footprint of permanent buildings within standard census dissemination areas (DAUID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pruid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province or Territory ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for province or territory.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province or Territory Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province or Territory name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eruid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Economic Region ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for economic region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cduid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Division ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for census division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Division name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census division name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csduid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Subdivision ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for census subdivision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csdname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census Subdivision name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Census subdivision name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fsauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward Sorting Area ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for forward sorting area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dauid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissemination Area ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier for dissemination area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saccode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical Area Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-digit Statisical Area Classification code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sactype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical Area Classification Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Statistical Area Classification groups census subdivisions according to whether they are a component of a census metropolitan area, a census agglomeration, a census metropolitan influenced zone or the territories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregation Rule above SAUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_None (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of undamaged buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_None (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of no damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Slight (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain slight damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Slight (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sight Damage Probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of slight damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Moderate (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain moderate damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Moderate (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of moderate damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Extensive (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain extensive damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Extensive (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of extensive damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Complete (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of buildings likely to sustain complete damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Complete (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of complete damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDt_Collapse (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collapsed Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of collapsed buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sDtr_Collapse (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of building collapsed for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Interruption (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average expected duration of time that a building is not functional for habitation or business operations for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Repair (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average expected duration of time required for cleanup, permitting, construction and repair of building damage sustained for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCm_Recovery (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average expected time required to recover pre-event (baseline) levels of building functionality for the earthquake scenario (sH_RupName), including initial downtime and time for cleanup, construction and repair of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisTotal (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of disaster debris (sCt_DebrisBW + sCt_DebrisCS) generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisBW (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of wood and brick disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_DebrisCS (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected volume of concrete and steel disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasDayL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasNightL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL1 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL2 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_CasTransitL4 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Shelter (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Shelter Requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people requiring short-term emergency shelter for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res3 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 3 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res30 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 30 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residents Affected after 90 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Res90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-Day Residential Affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of nighttime population expected to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage (sCt_DisplRes90 / Et_PopNight) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res180 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 180 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Res360 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of people to be displaced for up to 360 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Hshld (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displaced Households after 3 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of households to be displaced for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl30 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 30 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCr_Empl90 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion of employees expected to be affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sCt_DisrupEmpl90 / Et_PopDay) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl180 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 180 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sCt_Empl360 (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected number of employees affected for up to 360 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Asset (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total capital asset loss to buildings and contents for a specific earthquake rupture scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLm_Asset (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Loss Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average capital asset loss ratio for buildings and contents for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Bldg (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss from building damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLmr_Bldg (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average loss ratio for buildings in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Str (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to structural components of a building for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Nstr (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to non structural components of a building for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sLt_Cont (b0,r1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected total loss to building contents for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+    <t>Collapse Probability</t>
+  </si>
+  <si>
+    <t>Probability of building collapsed for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Interruption (b0/r1)</t>
+  </si>
+  <si>
+    <t>Building Downtime</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Expected duration of time that a building is not functional for habitation or business operations for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Repair (b0/r1)</t>
+  </si>
+  <si>
+    <t>Repair Time</t>
+  </si>
+  <si>
+    <t>Expected duration of time required for cleanup, permitting, construction and repair of building damage sustained for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Recovery (b0/r1)</t>
+  </si>
+  <si>
+    <t>Recovery Time</t>
+  </si>
+  <si>
+    <t>Time required to recover pre-event (baseline) levels of building functionality for the earthquake scenario (sH_RupName), including initial downtime and time for cleanup, construction and repair of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_DebrisTotal (b0/r1)</t>
+  </si>
+  <si>
+    <t>Total Disaster Debris</t>
+  </si>
+  <si>
+    <t>tons (t)</t>
+  </si>
+  <si>
+    <t>Expected volume of disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_DebrisBW (b0/r1)</t>
+  </si>
+  <si>
+    <t>Wood and Brick Debris</t>
+  </si>
+  <si>
+    <t>Expected volume of wood and brick disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_DebrisCS (b0/r1)</t>
+  </si>
+  <si>
+    <t>Concrete and Steel Debris</t>
+  </si>
+  <si>
+    <t>Expected volume of concrete and steel disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Minor Injury (Daytime)</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Moderate Injury (Daytime)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Serious Injury (Daytime)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasDayL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Critical Injury (Daytime)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Minor Injury (Nighttime)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Moderate Injury (Nighttime)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Serious Injury (Nighttime)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasNightL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Critical Injury (Nighttime)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL1 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Minor Injury (In Transit)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL2 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Moderate Injury (In Transit)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Serious Injury (In Transit)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_CasTransitL4 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Critical Injury (In Transit)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Res3 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Residents Disrupted after 3 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 3 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Res30 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Residents Disrupted after 30 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 30 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Res90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Residents Disrupted after 90 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCr_Res90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>90-Day Residential Displacement</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Proportion of nighttime population expected to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage (sCt_DisplRes90 / Et_PopNight)</t>
+  </si>
+  <si>
+    <t>sC_Res180 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Residents Disrupted after 180 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 180 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Res360 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Residents Disrupted after 360 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 360 days for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Hshld (b0/r1)</t>
+  </si>
+  <si>
+    <t>Displaced Households</t>
+  </si>
+  <si>
+    <t>households</t>
+  </si>
+  <si>
+    <t>Expected number of households to be displaced for the earthquake scenario (sH_RupName) as a result of building damage, (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Empl30 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employees Dispruted after 30 Days</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 30 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Empl90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employees Disrupted after 90 Days</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCr_Empl90 (b0/r1)</t>
+  </si>
+  <si>
+    <t>90-Day Employee Disruption</t>
+  </si>
+  <si>
+    <t>Proportion of employees expected to be affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sCt_DisrupEmpl90 / Et_PopDay), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Empl180 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employees Disrupted after 180 Days</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 180 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sC_Empl360 (b0/r1)</t>
+  </si>
+  <si>
+    <t>Employees Disrupted after 360 Days</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 360 days by business interruption caused by building damage in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sL_Asset (b0/r1)</t>
+  </si>
+  <si>
+    <t>Asset Loss</t>
+  </si>
+  <si>
+    <t>$CAD</t>
+  </si>
+  <si>
+    <t>Expected total capital asset loss to buildings and contents for a specific earthquake rupture scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sL_Bldg (b0/r1)</t>
+  </si>
+  <si>
+    <t>Building Loss</t>
+  </si>
+  <si>
+    <t>Expected total loss from building damage for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLr_Bldg (b0/r1)</t>
+  </si>
+  <si>
+    <t>Building Loss Ratio</t>
+  </si>
+  <si>
+    <t>Average loss ratio for buildings in the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sL_Str (b0/r1)</t>
+  </si>
+  <si>
+    <t>Structural Loss</t>
+  </si>
+  <si>
+    <t>Expected total loss to structural components of a building for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sL_Nstr (b0/r1)</t>
+  </si>
+  <si>
+    <t>Nonstructural Loss</t>
+  </si>
+  <si>
+    <t>Expected total loss to non structural components of a building for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sL_Cont (b0/r1)</t>
+  </si>
+  <si>
+    <t>Content Loss</t>
+  </si>
+  <si>
+    <t>Expected total loss to building contents for the earthquake scenario (sH_RupName), (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>Sauid</t>
+  </si>
+  <si>
+    <t>Settled Area ID</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Unique identification code assiged to the Settled Area (SAUID), which represents the approximate footprint of permanent buildings within standard census dissemination areas (DAUID)</t>
+  </si>
+  <si>
+    <t>pruid</t>
+  </si>
+  <si>
+    <t>Province or Territory ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for province or territory.</t>
+  </si>
+  <si>
+    <t>prname</t>
+  </si>
+  <si>
+    <t>Province or Territory Name</t>
+  </si>
+  <si>
+    <t>Province or Territory name</t>
+  </si>
+  <si>
+    <t>eruid</t>
+  </si>
+  <si>
+    <t>Census Economic Region ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for economic region</t>
+  </si>
+  <si>
+    <t>cduid</t>
+  </si>
+  <si>
+    <t>Census Division ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for census division</t>
+  </si>
+  <si>
+    <t>cdname</t>
+  </si>
+  <si>
+    <t>Census Division name</t>
+  </si>
+  <si>
+    <t>Census division name</t>
+  </si>
+  <si>
+    <t>csduid</t>
+  </si>
+  <si>
+    <t>Census Subdivision ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for census subdivision</t>
+  </si>
+  <si>
+    <t>csdname</t>
+  </si>
+  <si>
+    <t>Census Subdivision name</t>
+  </si>
+  <si>
+    <t>Census subdivision name</t>
+  </si>
+  <si>
+    <t>fsauid</t>
+  </si>
+  <si>
+    <t>Forward Sorting Area ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for forward sorting area</t>
+  </si>
+  <si>
+    <t>dauid</t>
+  </si>
+  <si>
+    <t>Dissemination Area ID</t>
+  </si>
+  <si>
+    <t>Unique identifier for dissemination area</t>
+  </si>
+  <si>
+    <t>saccode</t>
+  </si>
+  <si>
+    <t>Statistical Area Classification</t>
+  </si>
+  <si>
+    <t>3-digit Statisical Area Classification code</t>
+  </si>
+  <si>
+    <t>sactype</t>
+  </si>
+  <si>
+    <t>Statistical Area Classification Type</t>
+  </si>
+  <si>
+    <t>The Statistical Area Classification groups census subdivisions according to whether they are a component of a census metropolitan area, a census agglomeration, a census metropolitan influenced zone or the territories.</t>
+  </si>
+  <si>
+    <t>Aggregation Rule above SAUID</t>
+  </si>
+  <si>
+    <t>sDt_None (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of undamaged buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_None (b0,r1)</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>Probability of no damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDt_Slight (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain slight damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_Slight (b0,r1)</t>
+  </si>
+  <si>
+    <t>Sight Damage Probability</t>
+  </si>
+  <si>
+    <t>Probability of slight damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDt_Moderate (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain moderate damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_Moderate (b0,r1)</t>
+  </si>
+  <si>
+    <t>Probability of moderate damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDt_Extensive (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain extensive damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_Extensive (b0,r1)</t>
+  </si>
+  <si>
+    <t>Probability of extensive damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDt_Complete (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of buildings likely to sustain complete damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_Complete (b0,r1)</t>
+  </si>
+  <si>
+    <t>Probability of complete damage to buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDt_Collapse (b0,r1)</t>
+  </si>
+  <si>
+    <t>Collapsed Buildings</t>
+  </si>
+  <si>
+    <t>Expected number of collapsed buildings for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sDtr_Collapse (b0,r1)</t>
+  </si>
+  <si>
+    <t>Probability of building collapsed for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCm_Interruption (b0,r1)</t>
+  </si>
+  <si>
+    <t>Average expected duration of time that a building is not functional for habitation or business operations for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCm_Repair (b0,r1)</t>
+  </si>
+  <si>
+    <t>Average expected duration of time required for cleanup, permitting, construction and repair of building damage sustained for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCm_Recovery (b0,r1)</t>
+  </si>
+  <si>
+    <t>Average expected time required to recover pre-event (baseline) levels of building functionality for the earthquake scenario (sH_RupName), including initial downtime and time for cleanup, construction and repair of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisTotal (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected volume of disaster debris (sCt_DebrisBW + sCt_DebrisCS) generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisBW (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected volume of wood and brick disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_DebrisCS (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected volume of concrete and steel disaster debris generated as a result of building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasDayL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during daytime hours (09:00-17:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasNightL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during nighttime hours (20:00-06:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL1 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer basic first-aid treatment (Severity Level 1) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL2 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer non-life-threatening injuries requiring specialized medical treatment (Severity Level 2) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of persons expected to suffer life-threatening injuries requiring hospital admissions (Severity Level 3) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_CasTransitL4 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Number of expected fatalities resulting from complete building damage and/or collapse (Severity Level 4) in the earthquake scenario (sH_RupName) should it occur during morning and evening commute hours (06:00-09:00 and 17:00-20:00) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Shelter (b0,r1)</t>
+  </si>
+  <si>
+    <t>Emergency Shelter Requirement</t>
+  </si>
+  <si>
+    <t>Expected number of people requiring short-term emergency shelter for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res3 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 3 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res30 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 30 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Residents Affected after 90 Days</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCr_Res90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>90-Day Residential Affected</t>
+  </si>
+  <si>
+    <t>Proportion of nighttime population expected to be displaced for up to 90 days for the earthquake scenario (sH_RupName) as a result of building damage (sCt_DisplRes90 / Et_PopNight) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res180 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 180 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Res360 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of people to be displaced for up to 360 days for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Hshld (b0,r1)</t>
+  </si>
+  <si>
+    <t>Displaced Households after 3 Days</t>
+  </si>
+  <si>
+    <t>Expected number of households to be displaced for the earthquake scenario (sH_RupName) as a result of building damage , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Empl30 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 30 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Empl90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCr_Empl90 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Proportion of employees expected to be affected for up to 90 days by business interruption caused by building damage in the earthquake scenario (sCt_DisrupEmpl90 / Et_PopDay) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Empl180 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 180 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sCt_Empl360 (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected number of employees affected for up to 360 days by business interruption caused by building damage in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Asset (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected total capital asset loss to buildings and contents for a specific earthquake rupture scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLm_Asset (b0,r1)</t>
+  </si>
+  <si>
+    <t>Asset Loss Ratio</t>
+  </si>
+  <si>
+    <t>Average capital asset loss ratio for buildings and contents for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Bldg (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected total loss from building damage for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLmr_Bldg (b0,r1)</t>
+  </si>
+  <si>
+    <t>Average loss ratio for buildings in the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Str (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected total loss to structural components of a building for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Nstr (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected total loss to non structural components of a building for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>sLt_Cont (b0,r1)</t>
+  </si>
+  <si>
+    <t>Expected total loss to building contents for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
+  </si>
+  <si>
+    <t>E_BldgDesLev</t>
+  </si>
+  <si>
+    <t>Seismic Design Level</t>
+  </si>
+  <si>
+    <t>Assigned seismic safety design level based on site-level ground shaking intensity and construction epoch</t>
+  </si>
+  <si>
+    <t>E_BldgOccS1</t>
+  </si>
+  <si>
+    <t>Specific Hazus Building Occupancy</t>
+  </si>
+  <si>
+    <t>Specific building occupancy class based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>E_BldgTypeG</t>
+  </si>
+  <si>
+    <t>General Building Construction</t>
+  </si>
+  <si>
+    <t>General building construction type based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>shakemap_hexbin_1km, 5km, 10km, 25km, 50km, 100km</t>
+  </si>
+  <si>
+    <t>gridid_1,_5,_10,_25,_50,_100</t>
+  </si>
+  <si>
+    <t>sH_PGA_avg</t>
+  </si>
+  <si>
+    <t>sH_PGA_min</t>
+  </si>
+  <si>
+    <t>sH_PGA_max</t>
+  </si>
+  <si>
+    <t>Hexbin ID at 1,5,10,25,50,100km</t>
+  </si>
+  <si>
+    <t>Average Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Minimum Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Maximum Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Unique Hexbin identification at various 1, 5, 10, 25, 50, and 100km aggregation levels</t>
+  </si>
+  <si>
+    <t>Average expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
+  </si>
+  <si>
+    <t>Minimum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
+  </si>
+  <si>
+    <t>Maximum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
+  </si>
+  <si>
+    <t>E_BldgOccG</t>
+  </si>
+  <si>
+    <t>General Building Occupancy</t>
+  </si>
+  <si>
+    <t>General building occupancy class based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>E_BldgTypeS</t>
+  </si>
+  <si>
+    <t>Specific Building Construction</t>
+  </si>
+  <si>
+    <t>Specific building construction type based on standard North American HAZUS classification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1188,22 +1274,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1224,7 +1295,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1238,8 +1309,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,197 +1343,205 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Bad" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Bad" xfId="20"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1507,68 +1600,366 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="192.86"/>
+    <col min="1" max="1" width="192.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="113.86"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1582,14 +1973,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1597,42 +1988,42 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1640,14 +2031,14 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1655,14 +2046,14 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1670,28 +2061,28 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1699,134 +2090,201 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>403</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="149.86"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22" style="10" customWidth="1"/>
+    <col min="5" max="5" width="149.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +2302,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
@@ -1861,182 +2319,182 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>67</v>
@@ -2045,100 +2503,100 @@
         <v>54</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>28</v>
@@ -2147,15 +2605,15 @@
         <v>54</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
@@ -2164,15 +2622,15 @@
         <v>54</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>28</v>
@@ -2181,406 +2639,406 @@
         <v>54</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="D43" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="D44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>144</v>
@@ -2589,15 +3047,15 @@
         <v>85</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>144</v>
@@ -2606,15 +3064,15 @@
         <v>85</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>144</v>
@@ -2623,15 +3081,15 @@
         <v>85</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>144</v>
@@ -2640,15 +3098,15 @@
         <v>85</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>144</v>
@@ -2657,15 +3115,15 @@
         <v>85</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>144</v>
@@ -2674,15 +3132,15 @@
         <v>85</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>144</v>
@@ -2691,15 +3149,15 @@
         <v>85</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>144</v>
@@ -2708,15 +3166,15 @@
         <v>85</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>144</v>
@@ -2725,15 +3183,15 @@
         <v>85</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>144</v>
@@ -2742,32 +3200,32 @@
         <v>85</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>144</v>
@@ -2776,15 +3234,15 @@
         <v>85</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>144</v>
@@ -2793,32 +3251,32 @@
         <v>85</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>144</v>
@@ -2827,49 +3285,49 @@
         <v>85</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="D61" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>144</v>
@@ -2878,117 +3336,117 @@
         <v>85</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="D64" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>219</v>
@@ -2997,117 +3455,117 @@
         <v>85</v>
       </c>
       <c r="E69" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B75" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D75" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E75" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B76" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>256</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>8</v>
@@ -3116,15 +3574,15 @@
         <v>54</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>8</v>
@@ -3133,15 +3591,15 @@
         <v>54</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>8</v>
@@ -3150,15 +3608,15 @@
         <v>54</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>8</v>
@@ -3167,15 +3625,15 @@
         <v>54</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>8</v>
@@ -3184,15 +3642,15 @@
         <v>54</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>8</v>
@@ -3201,41 +3659,116 @@
         <v>54</v>
       </c>
       <c r="E81" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="17" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="136.85"/>
+    <col min="1" max="1" width="20.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="136.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -3252,14 +3785,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -3269,14 +3802,14 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3286,14 +3819,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -3303,14 +3836,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -3320,14 +3853,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -3337,14 +3870,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
@@ -3354,14 +3887,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -3371,14 +3904,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -3388,14 +3921,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -3405,7 +3938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -3422,7 +3955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
@@ -3439,7 +3972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>79</v>
       </c>
@@ -3456,7 +3989,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -3473,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -3490,7 +4023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -3507,7 +4040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -3524,7 +4057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3541,7 +4074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -3558,7 +4091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -3575,7 +4108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -3592,7 +4125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>274</v>
       </c>
@@ -3609,7 +4142,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>276</v>
       </c>
@@ -3626,7 +4159,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>279</v>
       </c>
@@ -3643,7 +4176,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>281</v>
       </c>
@@ -3660,7 +4193,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>284</v>
       </c>
@@ -3677,7 +4210,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>286</v>
       </c>
@@ -3694,7 +4227,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>288</v>
       </c>
@@ -3711,7 +4244,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>290</v>
       </c>
@@ -3728,7 +4261,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>292</v>
       </c>
@@ -3745,7 +4278,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>294</v>
       </c>
@@ -3762,7 +4295,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>296</v>
       </c>
@@ -3779,7 +4312,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>299</v>
       </c>
@@ -3796,7 +4329,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>301</v>
       </c>
@@ -3813,7 +4346,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>303</v>
       </c>
@@ -3830,7 +4363,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>305</v>
       </c>
@@ -3847,7 +4380,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>307</v>
       </c>
@@ -3864,7 +4397,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>309</v>
       </c>
@@ -3881,7 +4414,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>311</v>
       </c>
@@ -3898,7 +4431,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>313</v>
       </c>
@@ -3915,7 +4448,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>315</v>
       </c>
@@ -3932,7 +4465,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>317</v>
       </c>
@@ -3949,7 +4482,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>319</v>
       </c>
@@ -3966,7 +4499,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>321</v>
       </c>
@@ -3983,7 +4516,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>323</v>
       </c>
@@ -4000,7 +4533,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>325</v>
       </c>
@@ -4017,7 +4550,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>327</v>
       </c>
@@ -4034,7 +4567,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>329</v>
       </c>
@@ -4051,7 +4584,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>331</v>
       </c>
@@ -4068,7 +4601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>333</v>
       </c>
@@ -4085,7 +4618,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>335</v>
       </c>
@@ -4102,7 +4635,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>337</v>
       </c>
@@ -4119,7 +4652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>340</v>
       </c>
@@ -4136,7 +4669,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>342</v>
       </c>
@@ -4153,7 +4686,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>344</v>
       </c>
@@ -4170,7 +4703,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>347</v>
       </c>
@@ -4187,7 +4720,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>350</v>
       </c>
@@ -4204,7 +4737,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>352</v>
       </c>
@@ -4221,7 +4754,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>354</v>
       </c>
@@ -4238,7 +4771,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>357</v>
       </c>
@@ -4255,7 +4788,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>359</v>
       </c>
@@ -4272,7 +4805,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>361</v>
       </c>
@@ -4289,7 +4822,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>363</v>
       </c>
@@ -4306,7 +4839,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>365</v>
       </c>
@@ -4323,7 +4856,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>367</v>
       </c>
@@ -4340,7 +4873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>369</v>
       </c>
@@ -4357,7 +4890,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>372</v>
       </c>
@@ -4374,7 +4907,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>374</v>
       </c>
@@ -4391,7 +4924,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>376</v>
       </c>
@@ -4408,7 +4941,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>378</v>
       </c>
@@ -4425,7 +4958,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>380</v>
       </c>
@@ -4442,7 +4975,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>240</v>
       </c>
@@ -4459,7 +4992,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>243</v>
       </c>
@@ -4476,7 +5009,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>246</v>
       </c>
@@ -4493,7 +5026,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>249</v>
       </c>
@@ -4510,7 +5043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>252</v>
       </c>
@@ -4527,7 +5060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>255</v>
       </c>
@@ -4544,7 +5077,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>258</v>
       </c>
@@ -4561,7 +5094,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>261</v>
       </c>
@@ -4578,7 +5111,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>264</v>
       </c>
@@ -4595,7 +5128,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>267</v>
       </c>
@@ -4612,7 +5145,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>270</v>
       </c>
@@ -4630,37 +5163,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
-    </sheetView>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="139.14"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="139.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4677,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
@@ -4694,7 +5217,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>258</v>
       </c>
@@ -4711,7 +5234,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -4728,7 +5251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
@@ -4745,7 +5268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -4762,7 +5285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>59</v>
       </c>
@@ -4779,7 +5302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -4796,7 +5319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
@@ -4813,7 +5336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -4830,7 +5353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -4847,7 +5370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -4864,7 +5387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
@@ -4881,7 +5404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>79</v>
       </c>
@@ -4898,7 +5421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4915,7 +5438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
@@ -4932,7 +5455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -4949,7 +5472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -4966,7 +5489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -4983,7 +5506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -5000,7 +5523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -5017,7 +5540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -5034,7 +5557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>274</v>
       </c>
@@ -5051,7 +5574,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>276</v>
       </c>
@@ -5068,7 +5591,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>279</v>
       </c>
@@ -5085,7 +5608,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>281</v>
       </c>
@@ -5102,7 +5625,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>284</v>
       </c>
@@ -5119,7 +5642,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>286</v>
       </c>
@@ -5136,7 +5659,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>288</v>
       </c>
@@ -5153,7 +5676,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>290</v>
       </c>
@@ -5170,7 +5693,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>292</v>
       </c>
@@ -5187,7 +5710,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>294</v>
       </c>
@@ -5204,7 +5727,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>296</v>
       </c>
@@ -5221,7 +5744,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>299</v>
       </c>
@@ -5238,7 +5761,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>301</v>
       </c>
@@ -5255,7 +5778,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>303</v>
       </c>
@@ -5272,7 +5795,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>305</v>
       </c>
@@ -5289,7 +5812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>307</v>
       </c>
@@ -5306,7 +5829,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>309</v>
       </c>
@@ -5323,7 +5846,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>311</v>
       </c>
@@ -5340,7 +5863,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>313</v>
       </c>
@@ -5357,7 +5880,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>315</v>
       </c>
@@ -5374,7 +5897,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>317</v>
       </c>
@@ -5391,7 +5914,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>319</v>
       </c>
@@ -5408,7 +5931,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>321</v>
       </c>
@@ -5425,7 +5948,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>323</v>
       </c>
@@ -5442,7 +5965,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>325</v>
       </c>
@@ -5459,7 +5982,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>327</v>
       </c>
@@ -5476,7 +5999,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>329</v>
       </c>
@@ -5493,7 +6016,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>331</v>
       </c>
@@ -5510,7 +6033,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>333</v>
       </c>
@@ -5527,7 +6050,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>335</v>
       </c>
@@ -5544,7 +6067,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>337</v>
       </c>
@@ -5561,7 +6084,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>340</v>
       </c>
@@ -5578,7 +6101,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>342</v>
       </c>
@@ -5595,7 +6118,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>344</v>
       </c>
@@ -5612,7 +6135,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>347</v>
       </c>
@@ -5629,7 +6152,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>350</v>
       </c>
@@ -5646,7 +6169,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>352</v>
       </c>
@@ -5663,7 +6186,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>354</v>
       </c>
@@ -5680,7 +6203,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>357</v>
       </c>
@@ -5697,7 +6220,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>359</v>
       </c>
@@ -5714,7 +6237,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>361</v>
       </c>
@@ -5731,7 +6254,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>363</v>
       </c>
@@ -5748,7 +6271,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>365</v>
       </c>
@@ -5765,7 +6288,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>367</v>
       </c>
@@ -5782,7 +6305,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>369</v>
       </c>
@@ -5799,7 +6322,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>372</v>
       </c>
@@ -5816,7 +6339,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>374</v>
       </c>
@@ -5833,7 +6356,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>376</v>
       </c>
@@ -5850,7 +6373,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>378</v>
       </c>
@@ -5867,7 +6390,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>380</v>
       </c>
@@ -5885,12 +6408,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FINISHED/geopackages/dsra_attributes_en.xlsx
+++ b/FINISHED/geopackages/dsra_attributes_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\data\FGP - DSRA\For Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B1579-46F1-480E-97DB-FB1ECB30CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{265B1579-46F1-480E-97DB-FB1ECB30CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54B5346F-A5EC-458B-9979-5C873275C080}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,18 @@
     <sheet name="sauid" sheetId="4" r:id="rId4"/>
     <sheet name="csd" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -184,6 +194,45 @@
     <t>Expected spectral acceleration at 2 seconds (SA2.0) for the earthquake scenario (sH_RupName)</t>
   </si>
   <si>
+    <t>shakemap_hexgrid_1km, 5km, 10km, 25km, 50km, 100km</t>
+  </si>
+  <si>
+    <t>gridid_1,_5,_10,_25,_50,_100</t>
+  </si>
+  <si>
+    <t>Hexgrid ID at 1,5,10,25,50,100km</t>
+  </si>
+  <si>
+    <t>Unique Hexgrid identification at various 1, 5, 10, 25, 50, and 100km aggregation levels</t>
+  </si>
+  <si>
+    <t>sH_PGA_avg</t>
+  </si>
+  <si>
+    <t>Average Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Average expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexgrid area</t>
+  </si>
+  <si>
+    <t>sH_PGA_min</t>
+  </si>
+  <si>
+    <t>Minimum Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Minimum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexgrid area</t>
+  </si>
+  <si>
+    <t>sH_PGA_max</t>
+  </si>
+  <si>
+    <t>Maximum Peak Ground Acceleration</t>
+  </si>
+  <si>
+    <t>Maximum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexgrid area</t>
+  </si>
+  <si>
     <t>Aggregation Rule to SAUID</t>
   </si>
   <si>
@@ -199,6 +248,51 @@
     <t>Unique identification code assigned to the building, using number-occupancy-type-design level attributes</t>
   </si>
   <si>
+    <t>E_BldgDesLev</t>
+  </si>
+  <si>
+    <t>Seismic Design Level</t>
+  </si>
+  <si>
+    <t>Assigned seismic safety design level based on site-level ground shaking intensity and construction epoch</t>
+  </si>
+  <si>
+    <t>E_BldgOccS1</t>
+  </si>
+  <si>
+    <t>Specific Hazus Building Occupancy</t>
+  </si>
+  <si>
+    <t>Specific building occupancy class based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>E_BldgTypeG</t>
+  </si>
+  <si>
+    <t>General Building Construction</t>
+  </si>
+  <si>
+    <t>General building construction type based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>E_BldgOccG</t>
+  </si>
+  <si>
+    <t>General Building Occupancy</t>
+  </si>
+  <si>
+    <t>General building occupancy class based on standard North American HAZUS classification</t>
+  </si>
+  <si>
+    <t>E_BldgTypeS</t>
+  </si>
+  <si>
+    <t>Specific Building Construction</t>
+  </si>
+  <si>
+    <t>Specific building construction type based on standard North American HAZUS classification</t>
+  </si>
+  <si>
     <t>sH_Source</t>
   </si>
   <si>
@@ -1175,97 +1269,13 @@
   </si>
   <si>
     <t>Expected total loss to building contents for the earthquake scenario (sH_RupName) , (b0 = baseline, r1 = retrofit)</t>
-  </si>
-  <si>
-    <t>E_BldgDesLev</t>
-  </si>
-  <si>
-    <t>Seismic Design Level</t>
-  </si>
-  <si>
-    <t>Assigned seismic safety design level based on site-level ground shaking intensity and construction epoch</t>
-  </si>
-  <si>
-    <t>E_BldgOccS1</t>
-  </si>
-  <si>
-    <t>Specific Hazus Building Occupancy</t>
-  </si>
-  <si>
-    <t>Specific building occupancy class based on standard North American HAZUS classification</t>
-  </si>
-  <si>
-    <t>E_BldgTypeG</t>
-  </si>
-  <si>
-    <t>General Building Construction</t>
-  </si>
-  <si>
-    <t>General building construction type based on standard North American HAZUS classification</t>
-  </si>
-  <si>
-    <t>shakemap_hexbin_1km, 5km, 10km, 25km, 50km, 100km</t>
-  </si>
-  <si>
-    <t>gridid_1,_5,_10,_25,_50,_100</t>
-  </si>
-  <si>
-    <t>sH_PGA_avg</t>
-  </si>
-  <si>
-    <t>sH_PGA_min</t>
-  </si>
-  <si>
-    <t>sH_PGA_max</t>
-  </si>
-  <si>
-    <t>Hexbin ID at 1,5,10,25,50,100km</t>
-  </si>
-  <si>
-    <t>Average Peak Ground Acceleration</t>
-  </si>
-  <si>
-    <t>Minimum Peak Ground Acceleration</t>
-  </si>
-  <si>
-    <t>Maximum Peak Ground Acceleration</t>
-  </si>
-  <si>
-    <t>Unique Hexbin identification at various 1, 5, 10, 25, 50, and 100km aggregation levels</t>
-  </si>
-  <si>
-    <t>Average expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
-  </si>
-  <si>
-    <t>Minimum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
-  </si>
-  <si>
-    <t>Maximum expected peak ground acceleration (PGA) for the earthquake scenario (sH_RupName) within the specified hexbin area</t>
-  </si>
-  <si>
-    <t>E_BldgOccG</t>
-  </si>
-  <si>
-    <t>General Building Occupancy</t>
-  </si>
-  <si>
-    <t>General building occupancy class based on standard North American HAZUS classification</t>
-  </si>
-  <si>
-    <t>E_BldgTypeS</t>
-  </si>
-  <si>
-    <t>Specific Building Construction</t>
-  </si>
-  <si>
-    <t>Specific building construction type based on standard North American HAZUS classification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1920,19 +1930,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="192.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="51">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1947,11 +1957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1959,7 +1967,7 @@
     <col min="4" max="4" width="113.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +1996,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2031,7 +2039,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2046,7 +2054,7 @@
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2061,7 +2069,7 @@
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
@@ -2090,7 +2098,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -2132,7 +2140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
@@ -2146,7 +2154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
@@ -2160,7 +2168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
@@ -2174,24 +2182,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="25" t="s">
-        <v>391</v>
+        <v>51</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="27" t="s">
         <v>2</v>
       </c>
@@ -2205,60 +2213,60 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="29" t="s">
-        <v>392</v>
+        <v>52</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>396</v>
+        <v>53</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="31" t="s">
-        <v>393</v>
+        <v>55</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>397</v>
+        <v>56</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="31" t="s">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="31" t="s">
-        <v>395</v>
+        <v>61</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>399</v>
+        <v>62</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2275,7 +2283,7 @@
       <selection activeCell="E7" sqref="A3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -2284,7 +2292,7 @@
     <col min="5" max="5" width="149.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2295,116 +2303,116 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="32" t="s">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="34" t="s">
-        <v>385</v>
+        <v>72</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="34" t="s">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="34" t="s">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="34" t="s">
-        <v>407</v>
+        <v>81</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>408</v>
+        <v>82</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -2415,30 +2423,30 @@
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2449,81 +2457,81 @@
         <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -2534,64 +2542,64 @@
         <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -2602,13 +2610,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -2619,13 +2627,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
@@ -2636,13 +2644,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -2653,13 +2661,13 @@
         <v>28</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -2670,13 +2678,13 @@
         <v>28</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2687,13 +2695,13 @@
         <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -2704,13 +2712,13 @@
         <v>28</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
@@ -2721,1030 +2729,1030 @@
         <v>28</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E35" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="D36" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25">
       <c r="A40" s="6" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26.25">
       <c r="A41" s="6" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="6" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="6" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="6" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.25">
       <c r="A45" s="6" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.25">
       <c r="A46" s="6" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.25">
       <c r="A47" s="6" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25">
       <c r="A48" s="6" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="6" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="6" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="6" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="6" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="26.25">
       <c r="A53" s="6" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="26.25">
       <c r="A54" s="6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="26.25">
+      <c r="A55" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D55" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="26.25">
       <c r="A56" s="6" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="6" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="6" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="6" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="26.25">
       <c r="A66" s="6" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="6" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="6" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="17" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="17" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="17" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="17" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="17" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="17" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="17" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="17" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="17" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="17" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="25.5">
       <c r="A86" s="17" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +3767,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="7" customWidth="1"/>
@@ -3768,7 +3776,7 @@
     <col min="5" max="5" width="136.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
@@ -3779,30 +3787,30 @@
         <v>4</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.25">
       <c r="A2" s="8" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -3813,30 +3821,30 @@
         <v>8</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -3847,81 +3855,81 @@
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="26.25">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -3932,64 +3940,64 @@
         <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -4000,13 +4008,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -4017,13 +4025,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -4034,13 +4042,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -4051,13 +4059,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -4068,13 +4076,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -4085,13 +4093,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
@@ -4102,13 +4110,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -4119,1047 +4127,1047 @@
         <v>28</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="26.25">
       <c r="A34" s="6" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="26.25">
       <c r="A35" s="6" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="6" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="6" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="6" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25">
       <c r="A40" s="6" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26.25">
       <c r="A41" s="6" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="26.25">
       <c r="A42" s="6" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="6" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.25">
       <c r="A44" s="6" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.25">
       <c r="A45" s="6" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.25">
       <c r="A46" s="6" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.25">
       <c r="A47" s="6" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25">
       <c r="A48" s="6" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="6" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="6" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="6" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="6" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="26.25">
       <c r="A56" s="6" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="6" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.25">
       <c r="A62" s="6" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="26.25">
       <c r="A63" s="6" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="26.25">
       <c r="A64" s="6" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1">
       <c r="A65" s="6" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1">
+      <c r="A66" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="D66" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1">
       <c r="A67" s="6" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1">
       <c r="A70" s="6" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1">
       <c r="A71" s="6" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1">
       <c r="A72" s="17" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="C72" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1">
       <c r="A73" s="17" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1">
       <c r="A78" s="17" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1">
       <c r="A79" s="17" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1">
       <c r="A80" s="17" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="25.5">
       <c r="A82" s="17" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5182,7 @@
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -5183,7 +5191,7 @@
     <col min="5" max="5" width="139.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5194,47 +5202,47 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -5245,30 +5253,30 @@
         <v>8</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -5279,81 +5287,81 @@
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -5364,64 +5372,64 @@
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -5432,13 +5440,13 @@
         <v>28</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
@@ -5449,13 +5457,13 @@
         <v>28</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -5466,13 +5474,13 @@
         <v>28</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="6" t="s">
         <v>36</v>
       </c>
@@ -5483,13 +5491,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -5500,13 +5508,13 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -5517,13 +5525,13 @@
         <v>28</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -5534,13 +5542,13 @@
         <v>28</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -5551,860 +5559,860 @@
         <v>28</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="6" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="6" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="26.25">
       <c r="A35" s="6" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="6" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="26.25">
       <c r="A37" s="6" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="26.25">
       <c r="A38" s="6" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="6" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="6" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26.25">
       <c r="A41" s="6" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="26.25">
       <c r="A42" s="6" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="6" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.25">
       <c r="A44" s="6" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.25">
       <c r="A45" s="6" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26.25">
       <c r="A46" s="6" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="26.25">
       <c r="A47" s="6" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25">
       <c r="A48" s="6" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="6" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.25">
       <c r="A50" s="6" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25">
       <c r="A51" s="6" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="6" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="6" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="6" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="26.25">
       <c r="A57" s="6" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="6" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="6" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="26.25">
       <c r="A61" s="6" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.25">
       <c r="A62" s="6" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="26.25">
       <c r="A63" s="6" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="26.25">
       <c r="A64" s="6" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="26.25">
       <c r="A65" s="6" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="D67" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="6" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="6" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
